--- a/resultados testes.xlsx
+++ b/resultados testes.xlsx
@@ -134,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -170,6 +170,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -321,10 +326,1467 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>100 esparso</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>prim</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>prim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'100 esparso'!$B$4:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>8.7E-005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4E-005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4E-005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1E-005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1E-005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1E-005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2E-005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5E-005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2E-005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5E-005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.3E-005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5E-005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3E-005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1E-005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2E-005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3E-005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3E-005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3E-005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5E-005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.2E-005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.9E-005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5E-005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.3E-005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4E-005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6E-005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4E-005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.4E-005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.5E-005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.4E-005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.5E-005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.4E-005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.2E-005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.5E-005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4E-005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4E-005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>kruskal</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kruskal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'100 esparso'!$C$4:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0.000107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5E-005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.000104</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.000104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.000102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.000105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.000105</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.000101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.000133</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.000107</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.000115</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.00011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.000105</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.000108</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.000107</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.000112</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.000108</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.000108</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.000107</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.000105</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.000112</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.000108</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.000106</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.000106</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.000104</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.000112</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.000109</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.000105</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.000106</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.000106</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.000111</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.000108</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.000105</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.000106</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.000106</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.000113</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.3E-005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.3E-005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.000115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ckruskal</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ckruskal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'100 esparso'!$K$4:$K$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>0.000135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2E-005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7E-005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7E-005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7E-005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7E-005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7E-005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7E-005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7E-005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7E-005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7E-005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5E-005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.9E-005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.2E-005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.8E-005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.7E-005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.9E-005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.7E-005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6E-005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars/>
+          <c:downBars/>
+        </c:upDownBars>
+        <c:marker val="0"/>
+        <c:axId val="47326992"/>
+        <c:axId val="1194042"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="47326992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Número de Amostras</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="1194042"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1194042"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="47326992"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>10000 vértices completo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>prim</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>prim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'10000 completo'!$B$4:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>10.038099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.021916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.004687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.040193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.136715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.187722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.194494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.10238</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.978843</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.138571</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.952563</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.833667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.807739</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.917611</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.121862</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.906383</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.893004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.8286</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.813936</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.983633</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.83408</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.900349</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.859829</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.830081</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.842103</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.852056</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.85138</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.832753</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.848861</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.816922</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.063849</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.820002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.782447</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.86296</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.763786</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.798394</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.890548</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.886719</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.866881</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.845228</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.862376</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.87515</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.844821</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.840195</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10.008632</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.950185</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.875859</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>kruskal</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kruskal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'10000 completo'!$C$4:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>91.726247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.635922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.638279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.821748</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.681266</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.857952</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.426422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63.939173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.577806</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.594314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.313563</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63.75658</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.776544</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.822952</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.390488</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>63.642715</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63.579434</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63.78269</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63.574907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.766249</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.223545</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>64.143306</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64.804141</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63.646235</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63.666773</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63.510542</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.734831</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>63.586098</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63.666116</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>63.581688</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63.614068</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>63.827655</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>63.854092</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64.186124</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>63.832684</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.807679</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>63.925335</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>63.922749</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63.583171</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>63.573668</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>64.300727</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>63.597387</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>63.650484</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>64.326999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>63.764004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>64.04181</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>63.742821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ckruskal</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ckruskal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'10000 completo'!$K$4:$K$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="47"/>
+                <c:pt idx="0">
+                  <c:v>27.919385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.640434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.307366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.34551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.162032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.042274</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.190593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.567437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.186316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.862195</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.381795</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.292215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.176602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.353118</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.204</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.324269</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.339949</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.59583</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.826038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.536714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.42562</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.779946</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.325961</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.536271</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.309346</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.294853</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.220188</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.348768</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.006813</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.200216</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.732781</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.805605</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.904622</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.141901</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14.515301</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.273113</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.701679</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.659059</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.46851</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.20141</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.715893</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.877505</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15.026743</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.208371</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.955656</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.792513</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.58655</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars/>
+          <c:downBars/>
+        </c:upDownBars>
+        <c:marker val="0"/>
+        <c:axId val="86045083"/>
+        <c:axId val="74434510"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="86045083"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Número de Amostras</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="74434510"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74434510"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tempo(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="86045083"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>10000 esparso</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1302,11 +2764,11 @@
           <c:downBars/>
         </c:upDownBars>
         <c:marker val="0"/>
-        <c:axId val="64718101"/>
-        <c:axId val="36925022"/>
+        <c:axId val="42894245"/>
+        <c:axId val="25669421"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64718101"/>
+        <c:axId val="42894245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,14 +2804,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="36925022"/>
+        <c:crossAx val="25669421"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36925022"/>
+        <c:axId val="25669421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,7 +2856,397 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64718101"/>
+        <c:crossAx val="42894245"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>100 completo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>prim</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>prim</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'100 completo'!$B$4:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.000599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000519</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.000518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.000525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>kruskal</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kruskal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'100 completo'!$C$4:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.00642</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.004759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.004047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.003238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.003189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.003277</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.003218</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.003191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ckruskal</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ckruskal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'100 completo'!$K$4:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.001715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.000722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.000663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.000732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.000733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.000981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.000875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars/>
+          <c:downBars/>
+        </c:upDownBars>
+        <c:marker val="0"/>
+        <c:axId val="44422840"/>
+        <c:axId val="27322689"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="44422840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Número de Amostras</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="27322689"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27322689"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="44422840"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1434,15 +3286,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>361800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:colOff>401400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>330120</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>321480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1450,8 +3302,113 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1174320" y="6000840"/>
-        <a:ext cx="5760360" cy="3238200"/>
+        <a:off x="808920" y="2885760"/>
+        <a:ext cx="6833160" cy="3819960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2446200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5400" y="8839080"/>
+        <a:ext cx="6159240" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>427680</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>279360</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8790480" y="6333840"/>
+        <a:ext cx="6221160" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552600</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>181080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>180720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="1365120" y="8372520"/>
+        <a:ext cx="6262200" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1472,7 +3429,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+      <selection pane="topLeft" activeCell="E33" activeCellId="1" sqref="N6:N7 E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2145,7 +4102,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
+      <selection pane="topLeft" activeCell="N28" activeCellId="1" sqref="N6:N7 N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3589,14 +5546,18 @@
   </sheetPr>
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.19259259259259"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5888888888889"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36296296296296"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5722,6 +7683,7 @@
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Página &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5732,14 +7694,18 @@
   </sheetPr>
   <dimension ref="A1:O281"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.80740740740741"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.0074074074074"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.0518518518519"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36296296296296"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10649,6 +12615,7 @@
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Página &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10659,13 +12626,17 @@
   </sheetPr>
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1407407407407"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.3592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36296296296296"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12498,6 +14469,7 @@
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Página &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12508,15 +14480,19 @@
   </sheetPr>
   <dimension ref="A1:O179"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.36296296296296"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.41481481481481"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2555555555556"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="8.36296296296296"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.2296296296296"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.36296296296296"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
